--- a/grabDoll/config/turntable.xlsx
+++ b/grabDoll/config/turntable.xlsx
@@ -16,15 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Constantia"/>
-        <family val="1"/>
-      </rPr>
       <t>ID</t>
     </r>
     <r>
@@ -38,49 +50,86 @@
     </r>
   </si>
   <si>
-    <t>物品ID号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品数量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>排列优先级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>config_id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>概率</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>排列优先级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Constantia"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,6 +157,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,18 +192,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,342 +503,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>90001</v>
       </c>
       <c r="B3" s="3">
         <v>20001</v>
       </c>
       <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>90002</v>
       </c>
       <c r="B4" s="3">
         <v>20020</v>
       </c>
       <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>90003</v>
       </c>
       <c r="B5" s="3">
         <v>20002</v>
       </c>
       <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>90004</v>
       </c>
       <c r="B6" s="3">
         <v>20003</v>
       </c>
       <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>90005</v>
       </c>
       <c r="B7" s="3">
         <v>20004</v>
       </c>
       <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>200</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>90006</v>
       </c>
       <c r="B8" s="3">
         <v>20005</v>
       </c>
       <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>90007</v>
       </c>
       <c r="B9" s="3">
         <v>20006</v>
       </c>
       <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>90008</v>
       </c>
       <c r="B10" s="3">
         <v>20007</v>
       </c>
       <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>90009</v>
       </c>
       <c r="B11" s="3">
         <v>20008</v>
       </c>
       <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>90010</v>
       </c>
       <c r="B12" s="3">
         <v>20009</v>
       </c>
       <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>90011</v>
       </c>
       <c r="B13" s="3">
         <v>20014</v>
       </c>
       <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>15</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>90012</v>
       </c>
       <c r="B14" s="3">
         <v>20015</v>
       </c>
       <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>90013</v>
       </c>
       <c r="B15" s="3">
         <v>20016</v>
       </c>
       <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>90014</v>
       </c>
       <c r="B16" s="3">
         <v>20017</v>
       </c>
       <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -793,7 +920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -806,7 +933,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>